--- a/Java/Zadanie15/new_table.xlsx
+++ b/Java/Zadanie15/new_table.xlsx
@@ -26,13 +26,13 @@
     <t>set</t>
   </si>
   <si>
-    <t>[1, s, 1, d, 1, g, 1, 1, 1, 1]</t>
+    <t>[, s, , d, , g, , , , ]</t>
   </si>
   <si>
-    <t>1, s, 1, d, 1, g, 1, 1, 1, 1</t>
+    <t xml:space="preserve">, s, , d, , g, , , , </t>
   </si>
   <si>
-    <t>[1, s, d, g]</t>
+    <t>[, s, d, g]</t>
   </si>
 </sst>
 </file>
@@ -84,9 +84,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="2.41796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.32421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.11328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.11328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.69140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Java/Zadanie15/new_table.xlsx
+++ b/Java/Zadanie15/new_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -26,13 +26,43 @@
     <t>set</t>
   </si>
   <si>
-    <t>[, s, , d, , g, , , , ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, s, , d, , g, , , , </t>
-  </si>
-  <si>
-    <t>[, s, d, g]</t>
+    <t>[1, 2, 3, ., 5, 1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 3  . 5  2 3 4</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, .]</t>
+  </si>
+  <si>
+    <t>[ 1 3 sd 4 5 1 7 5 1]</t>
+  </si>
+  <si>
+    <t>[1 sd 3 4 5 7 ]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, ., s, d, 1]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, s, 4, d, .]</t>
+  </si>
+  <si>
+    <t>[sds, f, 1, s, ., w, e, 1, 2]</t>
+  </si>
+  <si>
+    <t>sds f 1 s  . w e 1 2</t>
+  </si>
+  <si>
+    <t>[1, 2, sds, s, e, f, w, .]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, ]]</t>
+  </si>
+  <si>
+    <t>[, 1, 2, 3, 4, 5, 6, 7, 8]</t>
+  </si>
+  <si>
+    <t>, 1, 2, 3, 4, 5, 6, 7, 8, ]</t>
   </si>
 </sst>
 </file>
@@ -77,16 +107,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="2.41796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.32421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.11328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.4921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.25390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -105,7 +135,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>4</v>
@@ -115,6 +145,76 @@
       </c>
       <c r="D2" t="s" s="0">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
